--- a/CONCATE_EXCELS/to_remove.xlsx
+++ b/CONCATE_EXCELS/to_remove.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL52"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,88 +536,68 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Method_(NAM)</t>
+          <t>Methods_description</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Methods_description</t>
+          <t>AOP</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>AOP</t>
+          <t>KE</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>KE</t>
+          <t>Chemical composition</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Nanoform ID,  if available (e.g. JRC NM102)</t>
+          <t>Size distribution _ measurement method</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Chemical composition</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Size distribution</t>
+          <t>Surface coating</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Size distribution _ measurement method</t>
+          <t>Crystallinity</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Other phys-chem characteristic available (yes/no)</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Surface coating</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Crystallinity</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Surface area (SSA and/or VSSA if available)</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Other phys-chem characteristic available (yes/no)</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Method_(NAM)
 /measurement</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Nanoform ID,  if available
 (e.g. JRC NM102)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Size distribution
 [nm+/-SD]</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Surface area (SSA and/or VSSA if available)
 [m2/g]</t>
@@ -698,47 +678,43 @@
       <c r="U2" t="n">
         <v>128</v>
       </c>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>512</v>
+      </c>
       <c r="W2" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X2" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA2" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB2" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC2" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD2" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE2" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF2" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG2" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH2" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL2" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -816,47 +792,43 @@
       <c r="U3" t="n">
         <v>128</v>
       </c>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>512</v>
+      </c>
       <c r="W3" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X3" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y3" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z3" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA3" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB3" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC3" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD3" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE3" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF3" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG3" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH3" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL3" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -934,47 +906,43 @@
       <c r="U4" t="n">
         <v>128</v>
       </c>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>512</v>
+      </c>
       <c r="W4" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X4" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y4" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z4" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA4" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC4" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD4" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE4" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF4" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG4" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH4" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL4" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -1052,47 +1020,43 @@
       <c r="U5" t="n">
         <v>128</v>
       </c>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>512</v>
+      </c>
       <c r="W5" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X5" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z5" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA5" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB5" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC5" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD5" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE5" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF5" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG5" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH5" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL5" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -1170,47 +1134,43 @@
       <c r="U6" t="n">
         <v>128</v>
       </c>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="n">
+        <v>512</v>
+      </c>
       <c r="W6" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X6" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y6" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z6" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA6" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB6" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC6" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD6" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE6" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF6" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG6" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH6" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL6" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -1288,47 +1248,43 @@
       <c r="U7" t="n">
         <v>128</v>
       </c>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>512</v>
+      </c>
       <c r="W7" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X7" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y7" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z7" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA7" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB7" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC7" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD7" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE7" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF7" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG7" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH7" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL7" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -1406,47 +1362,43 @@
       <c r="U8" t="n">
         <v>128</v>
       </c>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>512</v>
+      </c>
       <c r="W8" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X8" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z8" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA8" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB8" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC8" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD8" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE8" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF8" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG8" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH8" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL8" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -1524,47 +1476,43 @@
       <c r="U9" t="n">
         <v>128</v>
       </c>
-      <c r="V9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>512</v>
+      </c>
       <c r="W9" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X9" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y9" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z9" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA9" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB9" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC9" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD9" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE9" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF9" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG9" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH9" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL9" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -1642,47 +1590,43 @@
       <c r="U10" t="n">
         <v>128</v>
       </c>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>512</v>
+      </c>
       <c r="W10" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X10" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y10" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z10" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA10" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB10" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC10" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD10" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE10" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF10" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG10" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH10" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL10" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -1760,47 +1704,43 @@
       <c r="U11" t="n">
         <v>128</v>
       </c>
-      <c r="V11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>512</v>
+      </c>
       <c r="W11" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X11" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z11" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA11" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB11" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC11" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD11" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE11" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF11" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG11" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH11" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL11" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -1878,47 +1818,43 @@
       <c r="U12" t="n">
         <v>128</v>
       </c>
-      <c r="V12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>512</v>
+      </c>
       <c r="W12" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X12" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y12" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z12" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA12" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB12" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC12" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD12" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE12" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF12" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG12" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH12" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL12" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -1996,47 +1932,43 @@
       <c r="U13" t="n">
         <v>128</v>
       </c>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="n">
+        <v>512</v>
+      </c>
       <c r="W13" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X13" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y13" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z13" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA13" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB13" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC13" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD13" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE13" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF13" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG13" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH13" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL13" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -2114,47 +2046,43 @@
       <c r="U14" t="n">
         <v>128</v>
       </c>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>512</v>
+      </c>
       <c r="W14" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X14" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y14" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA14" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB14" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC14" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD14" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE14" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF14" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG14" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH14" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL14" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -2232,47 +2160,43 @@
       <c r="U15" t="n">
         <v>128</v>
       </c>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="n">
+        <v>512</v>
+      </c>
       <c r="W15" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X15" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y15" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z15" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA15" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB15" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC15" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD15" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE15" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF15" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG15" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH15" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL15" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -2350,47 +2274,43 @@
       <c r="U16" t="n">
         <v>128</v>
       </c>
-      <c r="V16" t="inlineStr"/>
+      <c r="V16" t="n">
+        <v>512</v>
+      </c>
       <c r="W16" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X16" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y16" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z16" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA16" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB16" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC16" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD16" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE16" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF16" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG16" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH16" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL16" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -2468,47 +2388,43 @@
       <c r="U17" t="n">
         <v>128</v>
       </c>
-      <c r="V17" t="inlineStr"/>
+      <c r="V17" t="n">
+        <v>512</v>
+      </c>
       <c r="W17" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X17" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y17" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z17" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA17" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB17" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC17" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD17" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE17" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF17" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG17" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH17" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL17" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -2586,47 +2502,43 @@
       <c r="U18" t="n">
         <v>128</v>
       </c>
-      <c r="V18" t="inlineStr"/>
+      <c r="V18" t="n">
+        <v>512</v>
+      </c>
       <c r="W18" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X18" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y18" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z18" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA18" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB18" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC18" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD18" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE18" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF18" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG18" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH18" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL18" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -2704,47 +2616,43 @@
       <c r="U19" t="n">
         <v>128</v>
       </c>
-      <c r="V19" t="inlineStr"/>
+      <c r="V19" t="n">
+        <v>512</v>
+      </c>
       <c r="W19" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X19" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y19" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z19" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA19" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB19" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC19" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD19" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE19" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF19" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG19" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH19" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL19" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -2822,47 +2730,43 @@
       <c r="U20" t="n">
         <v>128</v>
       </c>
-      <c r="V20" t="inlineStr"/>
+      <c r="V20" t="n">
+        <v>512</v>
+      </c>
       <c r="W20" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X20" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y20" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z20" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA20" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB20" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC20" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD20" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE20" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF20" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG20" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH20" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL20" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -2940,47 +2844,43 @@
       <c r="U21" t="n">
         <v>128</v>
       </c>
-      <c r="V21" t="inlineStr"/>
+      <c r="V21" t="n">
+        <v>512</v>
+      </c>
       <c r="W21" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X21" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y21" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z21" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA21" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB21" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC21" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD21" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE21" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF21" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG21" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH21" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL21" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -3058,47 +2958,43 @@
       <c r="U22" t="n">
         <v>128</v>
       </c>
-      <c r="V22" t="inlineStr"/>
+      <c r="V22" t="n">
+        <v>512</v>
+      </c>
       <c r="W22" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X22" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y22" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z22" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA22" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB22" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC22" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD22" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE22" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF22" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG22" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH22" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL22" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -3176,47 +3072,43 @@
       <c r="U23" t="n">
         <v>128</v>
       </c>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="n">
+        <v>512</v>
+      </c>
       <c r="W23" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X23" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y23" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z23" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA23" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB23" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC23" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD23" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE23" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF23" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG23" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH23" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL23" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -3294,47 +3186,43 @@
       <c r="U24" t="n">
         <v>128</v>
       </c>
-      <c r="V24" t="inlineStr"/>
+      <c r="V24" t="n">
+        <v>512</v>
+      </c>
       <c r="W24" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X24" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y24" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z24" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA24" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB24" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC24" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD24" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE24" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF24" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG24" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH24" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL24" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -3412,47 +3300,43 @@
       <c r="U25" t="n">
         <v>128</v>
       </c>
-      <c r="V25" t="inlineStr"/>
+      <c r="V25" t="n">
+        <v>512</v>
+      </c>
       <c r="W25" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X25" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y25" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z25" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA25" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB25" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC25" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD25" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE25" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF25" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG25" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH25" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL25" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -3530,47 +3414,43 @@
       <c r="U26" t="n">
         <v>128</v>
       </c>
-      <c r="V26" t="inlineStr"/>
+      <c r="V26" t="n">
+        <v>512</v>
+      </c>
       <c r="W26" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X26" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y26" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z26" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA26" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB26" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC26" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD26" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE26" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF26" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG26" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH26" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL26" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -3648,47 +3528,43 @@
       <c r="U27" t="n">
         <v>128</v>
       </c>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="n">
+        <v>512</v>
+      </c>
       <c r="W27" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X27" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y27" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z27" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA27" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB27" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC27" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD27" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE27" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF27" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG27" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH27" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL27" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -3766,47 +3642,43 @@
       <c r="U28" t="n">
         <v>128</v>
       </c>
-      <c r="V28" t="inlineStr"/>
+      <c r="V28" t="n">
+        <v>512</v>
+      </c>
       <c r="W28" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X28" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y28" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z28" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA28" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB28" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC28" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD28" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE28" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF28" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG28" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH28" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL28" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -3884,47 +3756,43 @@
       <c r="U29" t="n">
         <v>128</v>
       </c>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="n">
+        <v>512</v>
+      </c>
       <c r="W29" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X29" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y29" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z29" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA29" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB29" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC29" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD29" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE29" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF29" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG29" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH29" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL29" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -4002,47 +3870,43 @@
       <c r="U30" t="n">
         <v>128</v>
       </c>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="n">
+        <v>512</v>
+      </c>
       <c r="W30" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X30" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y30" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z30" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA30" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB30" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC30" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD30" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE30" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF30" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG30" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH30" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL30" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -4120,47 +3984,43 @@
       <c r="U31" t="n">
         <v>128</v>
       </c>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="n">
+        <v>512</v>
+      </c>
       <c r="W31" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X31" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y31" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z31" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA31" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB31" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC31" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD31" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE31" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF31" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG31" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH31" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL31" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -4238,47 +4098,43 @@
       <c r="U32" t="n">
         <v>128</v>
       </c>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="n">
+        <v>512</v>
+      </c>
       <c r="W32" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X32" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y32" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z32" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA32" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB32" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC32" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD32" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE32" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG32" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH32" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL32" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -4356,47 +4212,43 @@
       <c r="U33" t="n">
         <v>128</v>
       </c>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="n">
+        <v>512</v>
+      </c>
       <c r="W33" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X33" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y33" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z33" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA33" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB33" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC33" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD33" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE33" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF33" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG33" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH33" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL33" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -4474,47 +4326,43 @@
       <c r="U34" t="n">
         <v>128</v>
       </c>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>512</v>
+      </c>
       <c r="W34" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X34" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y34" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z34" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA34" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB34" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC34" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD34" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE34" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF34" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG34" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH34" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL34" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -4592,47 +4440,43 @@
       <c r="U35" t="n">
         <v>128</v>
       </c>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="n">
+        <v>512</v>
+      </c>
       <c r="W35" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X35" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y35" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z35" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA35" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB35" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC35" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD35" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE35" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF35" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG35" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH35" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL35" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -4710,47 +4554,43 @@
       <c r="U36" t="n">
         <v>128</v>
       </c>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>512</v>
+      </c>
       <c r="W36" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X36" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y36" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z36" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA36" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB36" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC36" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD36" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE36" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF36" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG36" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH36" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL36" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -4828,47 +4668,43 @@
       <c r="U37" t="n">
         <v>128</v>
       </c>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>512</v>
+      </c>
       <c r="W37" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X37" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y37" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z37" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA37" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB37" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC37" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD37" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE37" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF37" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG37" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH37" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL37" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -4946,47 +4782,43 @@
       <c r="U38" t="n">
         <v>128</v>
       </c>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="n">
+        <v>512</v>
+      </c>
       <c r="W38" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X38" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y38" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z38" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA38" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB38" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC38" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD38" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE38" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF38" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG38" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH38" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL38" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -5064,47 +4896,43 @@
       <c r="U39" t="n">
         <v>128</v>
       </c>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="n">
+        <v>512</v>
+      </c>
       <c r="W39" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X39" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y39" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z39" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA39" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB39" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC39" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD39" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE39" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF39" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG39" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH39" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL39" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -5182,47 +5010,43 @@
       <c r="U40" t="n">
         <v>128</v>
       </c>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="n">
+        <v>512</v>
+      </c>
       <c r="W40" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X40" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y40" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z40" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA40" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB40" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC40" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD40" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE40" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF40" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG40" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH40" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL40" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -5300,47 +5124,43 @@
       <c r="U41" t="n">
         <v>128</v>
       </c>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="n">
+        <v>512</v>
+      </c>
       <c r="W41" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X41" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y41" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z41" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA41" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB41" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC41" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD41" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE41" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF41" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG41" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH41" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL41" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -5418,47 +5238,43 @@
       <c r="U42" t="n">
         <v>128</v>
       </c>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="n">
+        <v>512</v>
+      </c>
       <c r="W42" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X42" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y42" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z42" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA42" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB42" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC42" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD42" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE42" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF42" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG42" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH42" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL42" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -5536,47 +5352,43 @@
       <c r="U43" t="n">
         <v>128</v>
       </c>
-      <c r="V43" t="inlineStr"/>
+      <c r="V43" t="n">
+        <v>512</v>
+      </c>
       <c r="W43" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X43" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y43" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z43" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA43" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB43" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC43" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD43" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE43" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF43" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG43" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH43" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL43" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -5654,47 +5466,43 @@
       <c r="U44" t="n">
         <v>128</v>
       </c>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="n">
+        <v>512</v>
+      </c>
       <c r="W44" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X44" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y44" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z44" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA44" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB44" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC44" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD44" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE44" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF44" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG44" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH44" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL44" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -5772,47 +5580,43 @@
       <c r="U45" t="n">
         <v>128</v>
       </c>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="n">
+        <v>512</v>
+      </c>
       <c r="W45" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X45" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y45" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z45" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA45" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB45" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC45" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD45" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE45" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF45" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG45" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH45" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL45" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -5890,47 +5694,43 @@
       <c r="U46" t="n">
         <v>128</v>
       </c>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="n">
+        <v>512</v>
+      </c>
       <c r="W46" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X46" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y46" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z46" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA46" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB46" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC46" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD46" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE46" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF46" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG46" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH46" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL46" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -6008,47 +5808,43 @@
       <c r="U47" t="n">
         <v>128</v>
       </c>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="n">
+        <v>512</v>
+      </c>
       <c r="W47" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X47" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y47" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z47" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA47" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB47" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC47" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD47" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE47" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF47" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG47" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH47" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL47" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -6126,47 +5922,43 @@
       <c r="U48" t="n">
         <v>128</v>
       </c>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="n">
+        <v>512</v>
+      </c>
       <c r="W48" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X48" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y48" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z48" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA48" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB48" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC48" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD48" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE48" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF48" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG48" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH48" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL48" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -6244,47 +6036,43 @@
       <c r="U49" t="n">
         <v>128</v>
       </c>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="n">
+        <v>512</v>
+      </c>
       <c r="W49" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X49" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y49" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z49" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA49" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB49" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC49" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD49" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE49" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF49" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG49" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH49" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL49" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -6362,47 +6150,43 @@
       <c r="U50" t="n">
         <v>128</v>
       </c>
-      <c r="V50" t="inlineStr"/>
+      <c r="V50" t="n">
+        <v>512</v>
+      </c>
       <c r="W50" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X50" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y50" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z50" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA50" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB50" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC50" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD50" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE50" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF50" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG50" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH50" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL50" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -6480,47 +6264,43 @@
       <c r="U51" t="n">
         <v>128</v>
       </c>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="n">
+        <v>512</v>
+      </c>
       <c r="W51" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X51" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y51" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z51" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA51" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB51" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC51" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD51" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE51" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF51" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG51" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH51" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL51" t="n">
         <v>524288</v>
       </c>
     </row>
@@ -6598,47 +6378,43 @@
       <c r="U52" t="n">
         <v>128</v>
       </c>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="n">
+        <v>512</v>
+      </c>
       <c r="W52" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="X52" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="Y52" t="n">
-        <v>2048</v>
-      </c>
-      <c r="Z52" t="inlineStr"/>
+        <v>8192</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>32768</v>
+      </c>
       <c r="AA52" t="n">
-        <v>8192</v>
-      </c>
-      <c r="AB52" t="inlineStr"/>
+        <v>65536</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>131072</v>
+      </c>
       <c r="AC52" t="n">
-        <v>32768</v>
+        <v>262144</v>
       </c>
       <c r="AD52" t="n">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="AE52" t="n">
-        <v>131072</v>
+        <v>256</v>
       </c>
       <c r="AF52" t="n">
-        <v>262144</v>
-      </c>
-      <c r="AG52" t="inlineStr"/>
+        <v>4096</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>16384</v>
+      </c>
       <c r="AH52" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>256</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>4096</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>16384</v>
-      </c>
-      <c r="AL52" t="n">
         <v>524288</v>
       </c>
     </row>
